--- a/JNSQ-Bodies.xlsx
+++ b/JNSQ-Bodies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\ksp-lwp-jnsq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FC3BCF-3667-4145-A327-8F56BE35FFBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C85BF3-4191-4B24-8B44-3C808193F7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19125" yWindow="5205" windowWidth="23460" windowHeight="11325" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
+    <workbookView xWindow="13110" yWindow="5715" windowWidth="23460" windowHeight="11325" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>Body</t>
   </si>
@@ -148,12 +148,37 @@
   </si>
   <si>
     <t>Prax</t>
+  </si>
+  <si>
+    <t>Semi-Major Axis</t>
+  </si>
+  <si>
+    <t>Eccentricity</t>
+  </si>
+  <si>
+    <t>Inclination</t>
+  </si>
+  <si>
+    <t>Lng of Asc Node</t>
+  </si>
+  <si>
+    <t>Arg of Peri</t>
+  </si>
+  <si>
+    <t>Mean Anom at Epoch</t>
+  </si>
+  <si>
+    <t>Ref Body</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -191,9 +222,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,217 +572,578 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC19E41-C2B5-4D66-A77D-43BBC399117B}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <f>1.25719*10^29</f>
-        <v>1.2571899999999999E+29</v>
-      </c>
-      <c r="C2">
-        <v>175750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" s="4">
+        <v>175750000</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D4" s="4">
+        <v>650000</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2530758.1566400002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>14522400000</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7</v>
+      </c>
+      <c r="J4" s="3">
+        <v>70</v>
+      </c>
+      <c r="K4" s="3">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D5" s="4">
+        <v>2050000</v>
+      </c>
+      <c r="E5" s="4">
+        <v>81000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4">
+        <v>27131000000</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>15</v>
+      </c>
+      <c r="K5" s="3">
+        <v>45</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="4">
+        <v>30000</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="4">
+        <v>86920000</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I6" s="7">
+        <v>12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>80</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" s="4">
+        <v>1600000</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="4">
+        <v>37525647898.432404</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D8" s="4">
+        <v>800000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50400</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4">
+        <v>57189100000</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J8" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>345</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D9" s="4">
+        <v>160000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32400</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>146970000</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I9" s="7">
+        <v>6</v>
+      </c>
+      <c r="J9" s="3">
+        <v>75</v>
+      </c>
+      <c r="K9" s="3">
+        <v>315</v>
+      </c>
+      <c r="L9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D10" s="4">
+        <v>800000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50400</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="4">
+        <v>57189100000</v>
+      </c>
+      <c r="H10" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="3">
+        <v>135.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>345</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D11" s="4">
+        <v>210000</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="4">
+        <v>36680000</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>90</v>
+      </c>
+      <c r="K11" s="3">
+        <v>345</v>
+      </c>
+      <c r="L11" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>7.4</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="B20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>8.4</v>
+      </c>
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="B32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="B34" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="M1:M2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/JNSQ-Bodies.xlsx
+++ b/JNSQ-Bodies.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\ksp-lwp-jnsq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\OneDrive - Catalyst Outdoor\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C85BF3-4191-4B24-8B44-3C808193F7A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{F6C85BF3-4191-4B24-8B44-3C808193F7A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9227A971-8349-4370-BE26-1AE6269AE9EF}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="5715" windowWidth="23460" windowHeight="11325" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
   <si>
     <t>Body</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Ref Body</t>
+  </si>
+  <si>
+    <t>CoffeeScript constructor</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +209,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,6 +252,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -572,13 +586,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC19E41-C2B5-4D66-A77D-43BBC399117B}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +603,7 @@
     <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="3" bestFit="1" customWidth="1"/>
@@ -597,44 +611,45 @@
     <col min="12" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="83" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
@@ -656,30 +671,50 @@
       <c r="L2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="14">
+        <v>1.25719E+29</v>
+      </c>
       <c r="D3" s="4">
         <v>175750000</v>
       </c>
       <c r="E3" s="4">
         <v>1080000</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="O3" t="str">
+        <f>CONCATENATE(C3,", ",D3,", ",E3,", null")</f>
+        <v>1.25719E+29, 175750000, 1080000, null</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="14">
+        <v>1.8003400000000001E+22</v>
+      </c>
       <c r="D4" s="4">
         <v>650000</v>
       </c>
@@ -707,14 +742,21 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O34" si="0">CONCATENATE(C4,", ",D4,", ",E4,", new Orbit(",F4,", ",G4,", ",H4,", ",I4,", ",J4,", ",K4,", ",L4,")")</f>
+        <v>1.80034E+22, 650000, 2530758.15664, new Orbit(Sun, 14522400000, 0.2, 7, 70, 15, 0)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="14">
+        <v>8.6449999999999994E+23</v>
+      </c>
       <c r="D5" s="4">
         <v>2050000</v>
       </c>
@@ -742,18 +784,28 @@
       <c r="L5" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="str">
+        <f t="shared" si="0"/>
+        <v>8.645E+23, 2050000, 81000, new Orbit(Sun, 27131000000, 0.01, 2.1, 15, 45, 5.7)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" s="14">
+        <v>9.9182E+17</v>
+      </c>
       <c r="D6" s="4">
         <v>30000</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="9">
+        <f>15.517*60*60*12</f>
+        <v>670334.39999999991</v>
+      </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
@@ -775,14 +827,21 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="str">
+        <f t="shared" si="0"/>
+        <v>991820000000000000, 30000, 670334.4, new Orbit(Eve, 86920000, 0.55, 12, 80, 10, 0)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
+      <c r="C7" s="14">
+        <v>3.7615700000000001E+23</v>
+      </c>
       <c r="D7" s="4">
         <v>1600000</v>
       </c>
@@ -810,14 +869,21 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="str">
+        <f t="shared" si="0"/>
+        <v>3.76157E+23, 1600000, 43200, new Orbit(Sun, 37525647898.4324, 0.02, 0, 0, 0, 0)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3.1</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="14">
+        <v>3.4089200000000003E+21</v>
+      </c>
       <c r="D8" s="4">
         <v>800000</v>
       </c>
@@ -845,14 +911,21 @@
       <c r="L8" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="str">
+        <f t="shared" si="0"/>
+        <v>3.40892E+21, 800000, 50400, new Orbit(Kerbin, 57189100000, 0.051, 0.06, 135.5, 345, 0.9)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3.2</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="14">
+        <v>1.88079E+20</v>
+      </c>
       <c r="D9" s="4">
         <v>160000</v>
       </c>
@@ -880,14 +953,21 @@
       <c r="L9" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>1.88079E+20, 160000, 32400, new Orbit(Kerbin, 146970000, 0.03, 6, 75, 315, 30)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="C10" s="14">
+        <v>3.1973399999999998E+22</v>
+      </c>
       <c r="D10" s="4">
         <v>800000</v>
       </c>
@@ -915,18 +995,28 @@
       <c r="L10" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="str">
+        <f t="shared" si="0"/>
+        <v>3.19734E+22, 800000, 50400, new Orbit(Sun, 57189100000, 0.051, 0.06, 135.5, 345, 0.9)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4.0999999999999996</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
+      <c r="C11" s="14">
+        <v>3.88794E+20</v>
+      </c>
       <c r="D11" s="4">
         <v>210000</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="9">
+        <f>22.118*60*60*12</f>
+        <v>955497.59999999986</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
@@ -948,189 +1038,990 @@
       <c r="L11" s="3">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="str">
+        <f t="shared" si="0"/>
+        <v>3.88794E+20, 210000, 955497.6, new Orbit(Duna, 36680000, 0.03, 0.2, 90, 345, 180)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="14">
+        <v>7.94632E+20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>260000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10800</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>94080000000</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>30</v>
+      </c>
+      <c r="K12" s="3">
+        <v>310</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="0"/>
+        <v>7.94632E+20, 260000, 10800, new Orbit(Sun, 94080000000, 0.07, 3, 30, 310, 0)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="14">
+        <v>4.70196E+17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="9">
+        <f>6.5795*60*60*12</f>
+        <v>284234.40000000002</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4770000</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10</v>
+      </c>
+      <c r="J13" s="3">
+        <v>120</v>
+      </c>
+      <c r="K13" s="3">
+        <v>90</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="0"/>
+        <v>470196000000000000, 20000, 284234.4, new Orbit(Edna, 4770000, 0.01, 10, 120, 90, 0)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="14">
+        <v>2.2851500000000001E+21</v>
+      </c>
+      <c r="D14" s="4">
+        <v>360000</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16200</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>112687000000</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>280</v>
+      </c>
+      <c r="K14" s="3">
+        <v>90</v>
+      </c>
+      <c r="L14" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="0"/>
+        <v>2.28515E+21, 360000, 16200, new Orbit(Sun, 112687000000, 0.145, 5, 280, 90, 3.9)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="14">
+        <v>2.9951499999999999E+25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>14000000</v>
+      </c>
+      <c r="E15" s="4">
+        <v>19800</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4">
+        <v>189765000000</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1.304</v>
+      </c>
+      <c r="J15" s="3">
+        <v>52</v>
+      </c>
+      <c r="K15" s="3">
+        <v>30</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="0"/>
+        <v>2.99515E+25, 14000000, 19800, new Orbit(Sun, 189765000000, 0.05, 1.304, 52, 30, 0.6)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7.1</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="14">
+        <v>1.0312E+23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1100000</v>
+      </c>
+      <c r="E16" s="9">
+        <f>2.669*60*60*12</f>
+        <v>115300.80000000002</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="4">
+        <v>87640000</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>120</v>
+      </c>
+      <c r="K16" s="3">
+        <v>120</v>
+      </c>
+      <c r="L16" s="3">
+        <v>180</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="0"/>
+        <v>1.0312E+23, 1100000, 115300.8, new Orbit(Jool, 87640000, 0.01, 0.2, 120, 120, 180)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>7.2</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="14">
+        <v>8.0006799999999997E+21</v>
+      </c>
+      <c r="D17" s="4">
+        <v>550000</v>
+      </c>
+      <c r="E17" s="9">
+        <f>6.5979*60*60*12</f>
+        <v>285029.28000000003</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="4">
+        <v>160230000</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="J17" s="3">
+        <v>90</v>
+      </c>
+      <c r="K17" s="3">
+        <v>270</v>
+      </c>
+      <c r="L17" s="3">
+        <v>180</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="0"/>
+        <v>8.00068E+21, 550000, 285029.28, new Orbit(Jool, 160230000, 0.03, 0.3, 90, 270, 180)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7.3</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="14">
+        <v>3.8085900000000003E+22</v>
+      </c>
+      <c r="D18" s="4">
+        <v>900000</v>
+      </c>
+      <c r="E18" s="9">
+        <f>16.311*60*60*12</f>
+        <v>704635.2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="4">
+        <v>292950000</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>150</v>
+      </c>
+      <c r="K18" s="3">
+        <v>285</v>
+      </c>
+      <c r="L18" s="3">
+        <v>270</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="0"/>
+        <v>3.80859E+22, 900000, 704635.2, new Orbit(Jool, 292950000, 0.01, 0.1, 150, 285, 270)</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>7.4</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="14">
+        <v>2.6522E+20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>190000</v>
+      </c>
+      <c r="E19" s="9">
+        <f>45.789*60*60*12</f>
+        <v>1978084.8000000003</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4">
+        <v>582970000</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25</v>
+      </c>
+      <c r="L19" s="3">
+        <v>270</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>2.6522E+20, 190000, 1978084.8, new Orbit(Jool, 582970000, 0.235, 15, 10, 25, 270)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>7.5</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="14">
+        <v>7.44967E+19</v>
+      </c>
+      <c r="D20" s="4">
+        <v>130000</v>
+      </c>
+      <c r="E20" s="4">
+        <v>18000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="4">
+        <v>739460000</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.17085</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="J20" s="3">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3">
+        <v>15</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="0"/>
+        <v>74496700000000000000, 130000, 18000, new Orbit(Jool, 739460000, 0.17085, 4.25, 2, 15, 1.8)</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="14">
+        <v>8.8396899999999997E+24</v>
+      </c>
+      <c r="D21" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>25200</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="4">
+        <v>359571000000</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I21" s="7">
+        <v>1.7</v>
+      </c>
+      <c r="J21" s="3">
+        <v>80</v>
+      </c>
+      <c r="K21" s="3">
+        <v>75</v>
+      </c>
+      <c r="L21" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="0"/>
+        <v>8.83969E+24, 8000000, 25200, new Orbit(Sun, 359571000000, 0.03, 1.7, 80, 75, 3.3)</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>8.1</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="14">
+        <v>9.9182E+19</v>
+      </c>
+      <c r="D22" s="4">
+        <v>150000</v>
+      </c>
+      <c r="E22" s="9">
+        <f>2.6861*60*60*12</f>
+        <v>116039.51999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4">
+        <v>58600000</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J22" s="3">
+        <v>60</v>
+      </c>
+      <c r="K22" s="3">
+        <v>180</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="O22" t="str">
+        <f t="shared" si="0"/>
+        <v>99182000000000000000, 150000, 116039.52, new Orbit(Lindor, 58600000, 0.02, 1.5, 60, 180, 0)</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>8.1999999999999993</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="14">
+        <v>9.2569900000000003E+20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>300000</v>
+      </c>
+      <c r="E23" s="9">
+        <f>6.6406*60*60*12</f>
+        <v>286873.92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4">
+        <v>107140000</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="3">
+        <v>120</v>
+      </c>
+      <c r="K23" s="3">
+        <v>30</v>
+      </c>
+      <c r="L23" s="3">
+        <v>270</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="0"/>
+        <v>9.25699E+20, 300000, 286873.92, new Orbit(Lindor, 107140000, 0.01, 0.25, 120, 30, 270)</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>8.3000000000000007</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="14">
+        <v>9.8939600000000008E+21</v>
+      </c>
+      <c r="D24" s="4">
+        <v>670000</v>
+      </c>
+      <c r="E24" s="9">
+        <f>15.374*60*60*12</f>
+        <v>664156.80000000005</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" s="4">
+        <v>187500000</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="J24" s="3">
+        <v>150</v>
+      </c>
+      <c r="K24" s="3">
+        <v>60</v>
+      </c>
+      <c r="L24" s="3">
+        <v>90</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="0"/>
+        <v>9.89396E+21, 670000, 664156.8, new Orbit(Lindor, 187500000, 0.025, 0.75, 150, 60, 90)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>8.4</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="14">
+        <v>1.4877300000000001E+22</v>
+      </c>
+      <c r="D25" s="4">
+        <v>750000</v>
+      </c>
+      <c r="E25" s="9">
+        <f>32.585*60*60*12</f>
+        <v>1407672.0000000002</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="4">
+        <v>309380000</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J25" s="3">
+        <v>90</v>
+      </c>
+      <c r="K25" s="3">
+        <v>105</v>
+      </c>
+      <c r="L25" s="3">
+        <v>180</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="0"/>
+        <v>1.48773E+22, 750000, 1407672, new Orbit(Lindor, 309380000, 0.03, 0.5, 90, 105, 180)</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>8.5</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="14">
+        <v>4.0407499999999998E+21</v>
+      </c>
+      <c r="D26" s="4">
+        <v>500000</v>
+      </c>
+      <c r="E26" s="9">
+        <f>82.709*60*60*12</f>
+        <v>3573028.8000000003</v>
+      </c>
+      <c r="F26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="4">
+        <v>575680000</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="3">
+        <v>180</v>
+      </c>
+      <c r="K26" s="3">
+        <v>285</v>
+      </c>
+      <c r="L26" s="3">
+        <v>90</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="0"/>
+        <v>4.04075E+21, 500000, 3573028.8, new Orbit(Lindor, 575680000, 0.04, 1, 180, 285, 90)</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="14">
+        <v>7.93456E+21</v>
+      </c>
+      <c r="D27" s="4">
+        <v>600000</v>
+      </c>
+      <c r="E27" s="4">
+        <v>14400</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>471171300000</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.26</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6.15</v>
+      </c>
+      <c r="J27" s="3">
+        <v>50</v>
+      </c>
+      <c r="K27" s="3">
+        <v>260</v>
+      </c>
+      <c r="L27" s="3">
+        <v>3.54</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="0"/>
+        <v>7.93456E+21, 600000, 14400, new Orbit(Sun, 471171300000, 0.26, 6.15, 50, 260, 3.54)</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>9.1</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="14">
+        <v>2.35098E+20</v>
+      </c>
+      <c r="D28" s="4">
+        <v>200000</v>
+      </c>
+      <c r="E28" s="9">
+        <f>35.841*60*60*12</f>
+        <v>1548331.2000000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="4">
+        <v>31800000</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I28" s="7">
+        <v>10</v>
+      </c>
+      <c r="J28" s="3">
+        <v>100</v>
+      </c>
+      <c r="K28" s="3">
+        <v>270</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="0"/>
+        <v>2.35098E+20, 200000, 1548331.2, new Orbit(Eeloo, 31800000, 0.05, 10, 100, 270, 0)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>9.1999999999999993</v>
       </c>
       <c r="B29" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="14">
+        <v>5.14277E+16</v>
+      </c>
+      <c r="D29" s="4">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="9">
+        <f>103.94*60*60*12</f>
+        <v>4490208</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="4">
+        <v>64670000</v>
+      </c>
+      <c r="H29" s="7">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I29" s="7">
+        <v>9.5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>105</v>
+      </c>
+      <c r="K29" s="3">
+        <v>210</v>
+      </c>
+      <c r="L29" s="3">
+        <v>180</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="0"/>
+        <v>51427700000000000, 10000, 4490208, new Orbit(Eeloo, 64670000, 0.025, 9.5, 105, 210, 180)</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="14">
+        <v>2.9754599999999999E+21</v>
+      </c>
+      <c r="D30" s="4">
+        <v>450000</v>
+      </c>
+      <c r="E30" s="4">
+        <v>14400</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="4">
+        <v>527129000000</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4</v>
+      </c>
+      <c r="J30" s="3">
+        <v>165</v>
+      </c>
+      <c r="K30" s="3">
+        <v>175</v>
+      </c>
+      <c r="L30" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="0"/>
+        <v>2.97546E+21, 450000, 14400, new Orbit(Sun, 527129000000, 0.1, 4, 165, 175, 4.7)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="14">
+        <v>1.9043E+24</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3600000</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43200</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1712000000000</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="I31" s="7">
+        <v>20</v>
+      </c>
+      <c r="J31" s="3">
+        <v>90</v>
+      </c>
+      <c r="K31" s="3">
+        <v>150</v>
+      </c>
+      <c r="L31" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="0"/>
+        <v>1.9043E+24, 3600000, 43200, new Orbit(Sun, 1712000000000, 0.35, 20, 90, 150, 2.5)</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>11.1</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="14">
+        <v>9.0277699999999997E+20</v>
+      </c>
+      <c r="D32" s="4">
+        <v>320000</v>
+      </c>
+      <c r="E32" s="9">
+        <f>5.3891*60*60*12</f>
+        <v>232809.12000000002</v>
+      </c>
+      <c r="F32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="4">
+        <v>55880000</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="J32" s="3">
+        <v>180</v>
+      </c>
+      <c r="K32" s="3">
+        <v>345</v>
+      </c>
+      <c r="L32" s="3">
+        <v>180</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="0"/>
+        <v>9.02777E+20, 320000, 232809.12, new Orbit(Nara, 55880000, 0.01, 0.5, 180, 345, 180)</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>11.2</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="14">
+        <v>1.0799799999999999E+22</v>
+      </c>
+      <c r="D33" s="4">
+        <v>700000</v>
+      </c>
+      <c r="E33" s="9">
+        <f>18.243*60*60*12</f>
+        <v>788097.59999999986</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="4">
+        <v>125980000</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>270</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>180</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="0"/>
+        <v>1.07998E+22, 700000, 788097.6, new Orbit(Nara, 125980000, 0.015, 0.2, 270, 0, 180)</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>11.3</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
+      </c>
+      <c r="C34" s="14">
+        <v>3.55586E+19</v>
+      </c>
+      <c r="D34" s="4">
+        <v>110000</v>
+      </c>
+      <c r="E34" s="4">
+        <v>21600</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="4">
+        <v>751900000</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="7">
+        <v>17</v>
+      </c>
+      <c r="J34" s="3">
+        <v>95</v>
+      </c>
+      <c r="K34" s="3">
+        <v>100</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="0"/>
+        <v>35558600000000000000, 110000, 21600, new Orbit(Nara, 751900000, 0.4, 17, 95, 100, 0)</v>
       </c>
     </row>
   </sheetData>

--- a/JNSQ-Bodies.xlsx
+++ b/JNSQ-Bodies.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\OneDrive - Catalyst Outdoor\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="299" documentId="13_ncr:1_{F6C85BF3-4191-4B24-8B44-3C808193F7A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{9227A971-8349-4370-BE26-1AE6269AE9EF}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="13_ncr:1_{F6C85BF3-4191-4B24-8B44-3C808193F7A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{21295970-E4BE-4A4C-A2F6-CAC0945BFBAD}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Body</t>
   </si>
@@ -231,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -272,6 +273,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,11 +590,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC19E41-C2B5-4D66-A77D-43BBC399117B}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +613,7 @@
     <col min="12" max="12" width="20" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="83" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="125.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -681,7 +683,7 @@
       <c r="A3" s="3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14">
@@ -701,8 +703,8 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="O3" t="str">
-        <f>CONCATENATE(C3,", ",D3,", ",E3,", null")</f>
-        <v>1.25719E+29, 175750000, 1080000, null</v>
+        <f>CONCATENATE("CelestialBody.",B3," = ",B3," = new CelestialBody(",C3,", ",D3,", ",E3,", null);")</f>
+        <v>CelestialBody.Sun = Sun = new CelestialBody(1.25719E+29, 175750000, 1080000, null);</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -743,8 +745,8 @@
         <v>0</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O34" si="0">CONCATENATE(C4,", ",D4,", ",E4,", new Orbit(",F4,", ",G4,", ",H4,", ",I4,", ",J4,", ",K4,", ",L4,")")</f>
-        <v>1.80034E+22, 650000, 2530758.15664, new Orbit(Sun, 14522400000, 0.2, 7, 70, 15, 0)</v>
+        <f>CONCATENATE("CelestialBody.",B4," = ",B4," = new CelestialBody(",C4,", ",D4,", ",E4,", new Orbit(",F4,", ",G4,", ",H4,", ",I4,", ",J4,", ",K4,", ",L4,"));")</f>
+        <v>CelestialBody.Moho = Moho = new CelestialBody(1.80034E+22, 650000, 2530758.15664, new Orbit(Sun, 14522400000, 0.2, 7, 70, 15, 0));</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -785,8 +787,8 @@
         <v>5.7</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="0"/>
-        <v>8.645E+23, 2050000, 81000, new Orbit(Sun, 27131000000, 0.01, 2.1, 15, 45, 5.7)</v>
+        <f t="shared" ref="O5:O34" si="0">CONCATENATE("CelestialBody.",B5," = ",B5," = new CelestialBody(",C5,", ",D5,", ",E5,", new Orbit(",F5,", ",G5,", ",H5,", ",I5,", ",J5,", ",K5,", ",L5,"));")</f>
+        <v>CelestialBody.Eve = Eve = new CelestialBody(8.645E+23, 2050000, 81000, new Orbit(Sun, 27131000000, 0.01, 2.1, 15, 45, 5.7));</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -829,7 +831,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="0"/>
-        <v>991820000000000000, 30000, 670334.4, new Orbit(Eve, 86920000, 0.55, 12, 80, 10, 0)</v>
+        <v>CelestialBody.Gilly = Gilly = new CelestialBody(991820000000000000, 30000, 670334.4, new Orbit(Eve, 86920000, 0.55, 12, 80, 10, 0));</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -871,7 +873,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="0"/>
-        <v>3.76157E+23, 1600000, 43200, new Orbit(Sun, 37525647898.4324, 0.02, 0, 0, 0, 0)</v>
+        <v>CelestialBody.Kerbin = Kerbin = new CelestialBody(3.76157E+23, 1600000, 43200, new Orbit(Sun, 37525647898.4324, 0.02, 0, 0, 0, 0));</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -913,7 +915,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="0"/>
-        <v>3.40892E+21, 800000, 50400, new Orbit(Kerbin, 57189100000, 0.051, 0.06, 135.5, 345, 0.9)</v>
+        <v>CelestialBody.Mun = Mun = new CelestialBody(3.40892E+21, 800000, 50400, new Orbit(Kerbin, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -955,7 +957,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="0"/>
-        <v>1.88079E+20, 160000, 32400, new Orbit(Kerbin, 146970000, 0.03, 6, 75, 315, 30)</v>
+        <v>CelestialBody.Minmus = Minmus = new CelestialBody(1.88079E+20, 160000, 32400, new Orbit(Kerbin, 146970000, 0.03, 6, 75, 315, 30));</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -997,7 +999,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" si="0"/>
-        <v>3.19734E+22, 800000, 50400, new Orbit(Sun, 57189100000, 0.051, 0.06, 135.5, 345, 0.9)</v>
+        <v>CelestialBody.Duna = Duna = new CelestialBody(3.19734E+22, 800000, 50400, new Orbit(Sun, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1040,7 +1042,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" si="0"/>
-        <v>3.88794E+20, 210000, 955497.6, new Orbit(Duna, 36680000, 0.03, 0.2, 90, 345, 180)</v>
+        <v>CelestialBody.Ike = Ike = new CelestialBody(3.88794E+20, 210000, 955497.6, new Orbit(Duna, 36680000, 0.03, 0.2, 90, 345, 180));</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1082,7 +1084,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="0"/>
-        <v>7.94632E+20, 260000, 10800, new Orbit(Sun, 94080000000, 0.07, 3, 30, 310, 0)</v>
+        <v>CelestialBody.Edna = Edna = new CelestialBody(7.94632E+20, 260000, 10800, new Orbit(Sun, 94080000000, 0.07, 3, 30, 310, 0));</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1125,7 +1127,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="0"/>
-        <v>470196000000000000, 20000, 284234.4, new Orbit(Edna, 4770000, 0.01, 10, 120, 90, 0)</v>
+        <v>CelestialBody.Dak = Dak = new CelestialBody(470196000000000000, 20000, 284234.4, new Orbit(Edna, 4770000, 0.01, 10, 120, 90, 0));</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1167,7 +1169,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="0"/>
-        <v>2.28515E+21, 360000, 16200, new Orbit(Sun, 112687000000, 0.145, 5, 280, 90, 3.9)</v>
+        <v>CelestialBody.Dres = Dres = new CelestialBody(2.28515E+21, 360000, 16200, new Orbit(Sun, 112687000000, 0.145, 5, 280, 90, 3.9));</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1209,7 +1211,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="0"/>
-        <v>2.99515E+25, 14000000, 19800, new Orbit(Sun, 189765000000, 0.05, 1.304, 52, 30, 0.6)</v>
+        <v>CelestialBody.Jool = Jool = new CelestialBody(2.99515E+25, 14000000, 19800, new Orbit(Sun, 189765000000, 0.05, 1.304, 52, 30, 0.6));</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1252,7 +1254,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="0"/>
-        <v>1.0312E+23, 1100000, 115300.8, new Orbit(Jool, 87640000, 0.01, 0.2, 120, 120, 180)</v>
+        <v>CelestialBody.Laythe = Laythe = new CelestialBody(1.0312E+23, 1100000, 115300.8, new Orbit(Jool, 87640000, 0.01, 0.2, 120, 120, 180));</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1295,7 +1297,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="0"/>
-        <v>8.00068E+21, 550000, 285029.28, new Orbit(Jool, 160230000, 0.03, 0.3, 90, 270, 180)</v>
+        <v>CelestialBody.Vall = Vall = new CelestialBody(8.00068E+21, 550000, 285029.28, new Orbit(Jool, 160230000, 0.03, 0.3, 90, 270, 180));</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1338,7 +1340,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="0"/>
-        <v>3.80859E+22, 900000, 704635.2, new Orbit(Jool, 292950000, 0.01, 0.1, 150, 285, 270)</v>
+        <v>CelestialBody.Tylo = Tylo = new CelestialBody(3.80859E+22, 900000, 704635.2, new Orbit(Jool, 292950000, 0.01, 0.1, 150, 285, 270));</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1381,7 +1383,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="0"/>
-        <v>2.6522E+20, 190000, 1978084.8, new Orbit(Jool, 582970000, 0.235, 15, 10, 25, 270)</v>
+        <v>CelestialBody.Bop = Bop = new CelestialBody(2.6522E+20, 190000, 1978084.8, new Orbit(Jool, 582970000, 0.235, 15, 10, 25, 270));</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1423,7 +1425,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>74496700000000000000, 130000, 18000, new Orbit(Jool, 739460000, 0.17085, 4.25, 2, 15, 1.8)</v>
+        <v>CelestialBody.Pol = Pol = new CelestialBody(74496700000000000000, 130000, 18000, new Orbit(Jool, 739460000, 0.17085, 4.25, 2, 15, 1.8));</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1465,7 +1467,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>8.83969E+24, 8000000, 25200, new Orbit(Sun, 359571000000, 0.03, 1.7, 80, 75, 3.3)</v>
+        <v>CelestialBody.Lindor = Lindor = new CelestialBody(8.83969E+24, 8000000, 25200, new Orbit(Sun, 359571000000, 0.03, 1.7, 80, 75, 3.3));</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1509,7 +1511,7 @@
       <c r="M22" s="3"/>
       <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>99182000000000000000, 150000, 116039.52, new Orbit(Lindor, 58600000, 0.02, 1.5, 60, 180, 0)</v>
+        <v>CelestialBody.Krel = Krel = new CelestialBody(99182000000000000000, 150000, 116039.52, new Orbit(Lindor, 58600000, 0.02, 1.5, 60, 180, 0));</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1552,7 +1554,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>9.25699E+20, 300000, 286873.92, new Orbit(Lindor, 107140000, 0.01, 0.25, 120, 30, 270)</v>
+        <v>CelestialBody.Aden = Aden = new CelestialBody(9.25699E+20, 300000, 286873.92, new Orbit(Lindor, 107140000, 0.01, 0.25, 120, 30, 270));</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1595,7 +1597,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" si="0"/>
-        <v>9.89396E+21, 670000, 664156.8, new Orbit(Lindor, 187500000, 0.025, 0.75, 150, 60, 90)</v>
+        <v>CelestialBody.Huygen = Huygen = new CelestialBody(9.89396E+21, 670000, 664156.8, new Orbit(Lindor, 187500000, 0.025, 0.75, 150, 60, 90));</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -1638,7 +1640,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="0"/>
-        <v>1.48773E+22, 750000, 1407672, new Orbit(Lindor, 309380000, 0.03, 0.5, 90, 105, 180)</v>
+        <v>CelestialBody.Riga = Riga = new CelestialBody(1.48773E+22, 750000, 1407672, new Orbit(Lindor, 309380000, 0.03, 0.5, 90, 105, 180));</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1681,7 +1683,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="0"/>
-        <v>4.04075E+21, 500000, 3573028.8, new Orbit(Lindor, 575680000, 0.04, 1, 180, 285, 90)</v>
+        <v>CelestialBody.Talos = Talos = new CelestialBody(4.04075E+21, 500000, 3573028.8, new Orbit(Lindor, 575680000, 0.04, 1, 180, 285, 90));</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -1723,7 +1725,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="0"/>
-        <v>7.93456E+21, 600000, 14400, new Orbit(Sun, 471171300000, 0.26, 6.15, 50, 260, 3.54)</v>
+        <v>CelestialBody.Eeloo = Eeloo = new CelestialBody(7.93456E+21, 600000, 14400, new Orbit(Sun, 471171300000, 0.26, 6.15, 50, 260, 3.54));</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1766,7 +1768,7 @@
       </c>
       <c r="O28" t="str">
         <f t="shared" si="0"/>
-        <v>2.35098E+20, 200000, 1548331.2, new Orbit(Eeloo, 31800000, 0.05, 10, 100, 270, 0)</v>
+        <v>CelestialBody.Celes = Celes = new CelestialBody(2.35098E+20, 200000, 1548331.2, new Orbit(Eeloo, 31800000, 0.05, 10, 100, 270, 0));</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1809,7 +1811,7 @@
       </c>
       <c r="O29" t="str">
         <f t="shared" si="0"/>
-        <v>51427700000000000, 10000, 4490208, new Orbit(Eeloo, 64670000, 0.025, 9.5, 105, 210, 180)</v>
+        <v>CelestialBody.Tam = Tam = new CelestialBody(51427700000000000, 10000, 4490208, new Orbit(Eeloo, 64670000, 0.025, 9.5, 105, 210, 180));</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1851,7 +1853,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" si="0"/>
-        <v>2.97546E+21, 450000, 14400, new Orbit(Sun, 527129000000, 0.1, 4, 165, 175, 4.7)</v>
+        <v>CelestialBody.Hamek = Hamek = new CelestialBody(2.97546E+21, 450000, 14400, new Orbit(Sun, 527129000000, 0.1, 4, 165, 175, 4.7));</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -1893,7 +1895,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="0"/>
-        <v>1.9043E+24, 3600000, 43200, new Orbit(Sun, 1712000000000, 0.35, 20, 90, 150, 2.5)</v>
+        <v>CelestialBody.Nara = Nara = new CelestialBody(1.9043E+24, 3600000, 43200, new Orbit(Sun, 1712000000000, 0.35, 20, 90, 150, 2.5));</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1936,7 +1938,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="0"/>
-        <v>9.02777E+20, 320000, 232809.12, new Orbit(Nara, 55880000, 0.01, 0.5, 180, 345, 180)</v>
+        <v>CelestialBody.Amos = Amos = new CelestialBody(9.02777E+20, 320000, 232809.12, new Orbit(Nara, 55880000, 0.01, 0.5, 180, 345, 180));</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1979,7 +1981,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="0"/>
-        <v>1.07998E+22, 700000, 788097.6, new Orbit(Nara, 125980000, 0.015, 0.2, 270, 0, 180)</v>
+        <v>CelestialBody.Enon = Enon = new CelestialBody(1.07998E+22, 700000, 788097.6, new Orbit(Nara, 125980000, 0.015, 0.2, 270, 0, 180));</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2021,7 +2023,7 @@
       </c>
       <c r="O34" t="str">
         <f t="shared" si="0"/>
-        <v>35558600000000000000, 110000, 21600, new Orbit(Nara, 751900000, 0.4, 17, 95, 100, 0)</v>
+        <v>CelestialBody.Prax = Prax = new CelestialBody(35558600000000000000, 110000, 21600, new Orbit(Nara, 751900000, 0.4, 17, 95, 100, 0));</v>
       </c>
     </row>
   </sheetData>
@@ -2038,4 +2040,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86003B00-B093-4A68-B134-DD48EE6E27DB}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="str">
+        <f>A1</f>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(B1,", ",A2)</f>
+        <v>Sun, Moho</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B32" si="0">CONCATENATE(B2,", ",A3)</f>
+        <v>Sun, Moho, Eve</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon, Prax</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JNSQ-Bodies.xlsx
+++ b/JNSQ-Bodies.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\ksp-lwp-jnsq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE88FFA8-7BD2-494F-A53F-8CA0ED307F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E8A90-D1F4-4A09-8920-E44AB97C426E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10185" yWindow="435" windowWidth="26700" windowHeight="19425" activeTab="1" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
+    <workbookView xWindow="5970" yWindow="450" windowWidth="26700" windowHeight="19425" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$S$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$T$49</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>Body</t>
   </si>
@@ -194,9 +194,6 @@
   </si>
   <si>
     <t>Rosmerta</t>
-  </si>
-  <si>
-    <t>RAB-58E</t>
   </si>
   <si>
     <t>Cernunnos</t>
@@ -249,6 +246,12 @@
   </si>
   <si>
     <t>grav Parameter</t>
+  </si>
+  <si>
+    <t>Constructor Revised</t>
+  </si>
+  <si>
+    <t>RAB58E</t>
   </si>
 </sst>
 </file>
@@ -310,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -318,7 +321,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -700,20 +702,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC19E41-C2B5-4D66-A77D-43BBC399117B}">
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B3:B49"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -724,100 +726,104 @@
     <col min="12" max="12" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="135.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" spans="1:20" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" spans="1:19" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="K2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="R2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="S2" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>1.25719E+29</v>
       </c>
       <c r="D3" s="3">
@@ -826,14 +832,14 @@
       <c r="E3" s="3">
         <v>1080000</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="O3" s="30">
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="O3" s="29">
         <v>27.7</v>
       </c>
       <c r="P3">
@@ -844,15 +850,19 @@
         <f>CONCATENATE("CelestialBody.",B3," = ",B3," = new CelestialBody(",C3,", ",D3,", ",E3,", null);")</f>
         <v>CelestialBody.Sun = Sun = new CelestialBody(1.25719E+29, 175750000, 1080000, null);</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="T3" t="str">
+        <f>SUBSTITUTE(S3,"E+","e")</f>
+        <v>CelestialBody.Sun = Sun = new CelestialBody(1.25719e29, 175750000, 1080000, null);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>1.8003400000000001E+22</v>
       </c>
       <c r="D4" s="3">
@@ -886,15 +896,19 @@
         <f>CONCATENATE("CelestialBody.",B4," = ",B4," = new CelestialBody(",C4,", ",D4,", ",E4,", new Orbit(",F4,", ",G4,", ",H4,", ",I4,", ",J4,", ",K4,", ",L4,"));")</f>
         <v>CelestialBody.Moho = Moho = new CelestialBody(1.80034E+22, 650000, 2530758.15664, new Orbit(Sun, 14522400000, 0.2, 7, 70, 15, 0));</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="T4" t="str">
+        <f t="shared" ref="T4:T49" si="0">SUBSTITUTE(S4,"E+","e")</f>
+        <v>CelestialBody.Moho = Moho = new CelestialBody(1.80034e22, 650000, 2530758.15664, new Orbit(Sun, 14522400000, 0.2, 7, 70, 15, 0));</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>8.6449999999999994E+23</v>
       </c>
       <c r="D5" s="3">
@@ -924,7 +938,7 @@
       <c r="L5" s="4">
         <v>5.7</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="29">
         <v>1.4</v>
       </c>
       <c r="P5">
@@ -932,24 +946,28 @@
         <v>57697425274999.992</v>
       </c>
       <c r="S5" t="str">
-        <f t="shared" ref="S5:S49" si="0">CONCATENATE("CelestialBody.",B5," = ",B5," = new CelestialBody(",C5,", ",D5,", ",E5,", new Orbit(",F5,", ",G5,", ",H5,", ",I5,", ",J5,", ",K5,", ",L5,"));")</f>
+        <f t="shared" ref="S5:S49" si="1">CONCATENATE("CelestialBody.",B5," = ",B5," = new CelestialBody(",C5,", ",D5,", ",E5,", new Orbit(",F5,", ",G5,", ",H5,", ",I5,", ",J5,", ",K5,", ",L5,"));")</f>
         <v>CelestialBody.Eve = Eve = new CelestialBody(8.645E+23, 2050000, 81000, new Orbit(Sun, 27131000000, 0.01, 2.1, 15, 45, 5.7));</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="T5" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Eve = Eve = new CelestialBody(8.645e23, 2050000, 81000, new Orbit(Sun, 27131000000, 0.01, 2.1, 15, 45, 5.7));</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>9.9182E+17</v>
       </c>
       <c r="D6" s="3">
         <v>30000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="26">
         <f>IF(R6,Q6,"uhhh…")</f>
         <v>670318.53484023141</v>
       </c>
@@ -982,24 +1000,28 @@
         <v>1</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Gilly = Gilly = new CelestialBody(991820000000000000, 30000, 670318.534840231, new Orbit(Eve, 86920000, 0.55, 12, 80, 10, 0));</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="T6" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Gilly = Gilly = new CelestialBody(991820000000000000, 30000, 670318.534840231, new Orbit(Eve, 86920000, 0.55, 12, 80, 10, 0));</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>3.7615700000000001E+23</v>
       </c>
       <c r="D7" s="3">
         <v>1600000</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="26">
         <v>43200</v>
       </c>
       <c r="F7" t="s">
@@ -1024,24 +1046,28 @@
         <v>0</v>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Kerbin = Kerbin = new CelestialBody(3.76157E+23, 1600000, 43200, new Orbit(Sun, 37525647898.4324, 0.02, 0, 0, 0, 0));</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="T7" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Kerbin = Kerbin = new CelestialBody(3.76157e23, 1600000, 43200, new Orbit(Sun, 37525647898.4324, 0.02, 0, 0, 0, 0));</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>3.1</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>3.4089200000000003E+21</v>
       </c>
       <c r="D8" s="3">
         <v>800000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="26">
         <v>50400</v>
       </c>
       <c r="F8" t="s">
@@ -1066,24 +1092,28 @@
         <v>0.9</v>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Mun = Mun = new CelestialBody(3.40892E+21, 800000, 50400, new Orbit(Kerbin, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="T8" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Mun = Mun = new CelestialBody(3.40892e21, 800000, 50400, new Orbit(Kerbin, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>3.2</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>1.88079E+20</v>
       </c>
       <c r="D9" s="3">
         <v>160000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="26">
         <v>32400</v>
       </c>
       <c r="F9" t="s">
@@ -1108,24 +1138,28 @@
         <v>30</v>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Minmus = Minmus = new CelestialBody(1.88079E+20, 160000, 32400, new Orbit(Kerbin, 146970000, 0.03, 6, 75, 315, 30));</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="T9" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Minmus = Minmus = new CelestialBody(1.88079e20, 160000, 32400, new Orbit(Kerbin, 146970000, 0.03, 6, 75, 315, 30));</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>3.1973399999999998E+22</v>
       </c>
       <c r="D10" s="3">
         <v>800000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="26">
         <v>50400</v>
       </c>
       <c r="F10" t="s">
@@ -1149,7 +1183,7 @@
       <c r="L10" s="4">
         <v>0.9</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="29">
         <v>0.34</v>
       </c>
       <c r="P10">
@@ -1157,24 +1191,28 @@
         <v>2133927040000</v>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Duna = Duna = new CelestialBody(3.19734E+22, 800000, 50400, new Orbit(Sun, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="T10" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Duna = Duna = new CelestialBody(3.19734e22, 800000, 50400, new Orbit(Sun, 57189100000, 0.051, 0.06, 135.5, 345, 0.9));</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
         <v>4.0999999999999996</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>3.88794E+20</v>
       </c>
       <c r="D11" s="3">
         <v>210000</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="26">
         <f>IF(R11,Q11,"uhhh…")</f>
         <v>955507.44559247617</v>
       </c>
@@ -1207,24 +1245,28 @@
         <v>1</v>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Ike = Ike = new CelestialBody(3.88794E+20, 210000, 955507.445592476, new Orbit(Duna, 36680000, 0.03, 0.2, 90, 345, 180));</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="T11" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Ike = Ike = new CelestialBody(3.88794e20, 210000, 955507.445592476, new Orbit(Duna, 36680000, 0.03, 0.2, 90, 345, 180));</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>7.94632E+20</v>
       </c>
       <c r="D12" s="3">
         <v>260000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="26">
         <v>10800</v>
       </c>
       <c r="F12" t="s">
@@ -1248,7 +1290,7 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="29">
         <v>0.08</v>
       </c>
       <c r="P12">
@@ -1256,24 +1298,28 @@
         <v>53034363200</v>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Edna = Edna = new CelestialBody(7.94632E+20, 260000, 10800, new Orbit(Sun, 94080000000, 0.07, 3, 30, 310, 0));</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="T12" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Edna = Edna = new CelestialBody(7.94632e20, 260000, 10800, new Orbit(Sun, 94080000000, 0.07, 3, 30, 310, 0));</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <v>5.0999999999999996</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>4.70196E+17</v>
       </c>
       <c r="D13" s="3">
         <v>20000</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="26">
         <f>IF(R13,Q13,"uhhh…")</f>
         <v>284235.78721862118</v>
       </c>
@@ -1306,24 +1352,28 @@
         <v>1</v>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Dak = Dak = new CelestialBody(470196000000000000, 20000, 284235.787218621, new Orbit(Edna, 4770000, 0.01, 10, 120, 90, 0));</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="T13" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Dak = Dak = new CelestialBody(470196000000000000, 20000, 284235.787218621, new Orbit(Edna, 4770000, 0.01, 10, 120, 90, 0));</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2.2851500000000001E+21</v>
       </c>
       <c r="D14" s="3">
         <v>360000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="26">
         <v>16200</v>
       </c>
       <c r="F14" t="s">
@@ -1348,24 +1398,28 @@
         <v>3.9</v>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Dres = Dres = new CelestialBody(2.28515E+21, 360000, 16200, new Orbit(Sun, 112687000000, 0.145, 5, 280, 90, 3.9));</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="T14" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Dres = Dres = new CelestialBody(2.28515e21, 360000, 16200, new Orbit(Sun, 112687000000, 0.145, 5, 280, 90, 3.9));</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>2.9951499999999999E+25</v>
       </c>
       <c r="D15" s="3">
         <v>14000000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="26">
         <v>19800</v>
       </c>
       <c r="F15" t="s">
@@ -1389,7 +1443,7 @@
       <c r="L15" s="4">
         <v>0.6</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="29">
         <v>1.04</v>
       </c>
       <c r="P15">
@@ -1397,24 +1451,28 @@
         <v>1998987536000000</v>
       </c>
       <c r="S15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Jool = Jool = new CelestialBody(2.99515E+25, 14000000, 19800, new Orbit(Sun, 189765000000, 0.05, 1.304, 52, 30, 0.6));</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="T15" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Jool = Jool = new CelestialBody(2.99515e25, 14000000, 19800, new Orbit(Sun, 189765000000, 0.05, 1.304, 52, 30, 0.6));</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
         <v>7.1</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>1.0312E+23</v>
       </c>
       <c r="D16" s="3">
         <v>1100000</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="26">
         <f>IF(R16,Q16,"uhhh…")</f>
         <v>115299.75343623257</v>
       </c>
@@ -1447,24 +1505,28 @@
         <v>1</v>
       </c>
       <c r="S16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Laythe = Laythe = new CelestialBody(1.0312E+23, 1100000, 115299.753436233, new Orbit(Jool, 87640000, 0.01, 0.2, 120, 120, 180));</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="T16" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Laythe = Laythe = new CelestialBody(1.0312e23, 1100000, 115299.753436233, new Orbit(Jool, 87640000, 0.01, 0.2, 120, 120, 180));</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
         <v>7.2</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>8.0006799999999997E+21</v>
       </c>
       <c r="D17" s="3">
         <v>550000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="26">
         <f>IF(R17,Q17,"uhhh…")</f>
         <v>285030.00096071046</v>
       </c>
@@ -1497,24 +1559,28 @@
         <v>1</v>
       </c>
       <c r="S17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Vall = Vall = new CelestialBody(8.00068E+21, 550000, 285030.00096071, new Orbit(Jool, 160230000, 0.03, 0.3, 90, 270, 180));</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="T17" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Vall = Vall = new CelestialBody(8.00068e21, 550000, 285030.00096071, new Orbit(Jool, 160230000, 0.03, 0.3, 90, 270, 180));</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
         <v>7.3</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>3.8085900000000003E+22</v>
       </c>
       <c r="D18" s="3">
         <v>900000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="26">
         <f>IF(R18,Q18,"uhhh…")</f>
         <v>704636.4074863788</v>
       </c>
@@ -1547,24 +1613,28 @@
         <v>1</v>
       </c>
       <c r="S18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Tylo = Tylo = new CelestialBody(3.80859E+22, 900000, 704636.407486379, new Orbit(Jool, 292950000, 0.01, 0.1, 150, 285, 270));</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="T18" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Tylo = Tylo = new CelestialBody(3.80859e22, 900000, 704636.407486379, new Orbit(Jool, 292950000, 0.01, 0.1, 150, 285, 270));</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
         <v>7.4</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2.6522E+20</v>
       </c>
       <c r="D19" s="3">
         <v>190000</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="26">
         <f>IF(R19,Q19,"uhhh…")</f>
         <v>1978081.2878190691</v>
       </c>
@@ -1597,24 +1667,28 @@
         <v>1</v>
       </c>
       <c r="S19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Bop = Bop = new CelestialBody(2.6522E+20, 190000, 1978081.28781907, new Orbit(Jool, 582970000, 0.235, 15, 10, 25, 270));</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="T19" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Bop = Bop = new CelestialBody(2.6522e20, 190000, 1978081.28781907, new Orbit(Jool, 582970000, 0.235, 15, 10, 25, 270));</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
         <v>7.5</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>7.44967E+19</v>
       </c>
       <c r="D20" s="3">
         <v>130000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="26">
         <v>18000</v>
       </c>
       <c r="F20" t="s">
@@ -1639,24 +1713,28 @@
         <v>1.8</v>
       </c>
       <c r="S20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Pol = Pol = new CelestialBody(74496700000000000000, 130000, 18000, new Orbit(Jool, 739460000, 0.17085, 4.25, 2, 15, 1.8));</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="T20" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Pol = Pol = new CelestialBody(74496700000000000000, 130000, 18000, new Orbit(Jool, 739460000, 0.17085, 4.25, 2, 15, 1.8));</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>8.8396899999999997E+24</v>
       </c>
       <c r="D21" s="3">
         <v>8000000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="26">
         <v>25200</v>
       </c>
       <c r="F21" t="s">
@@ -1680,7 +1758,7 @@
       <c r="L21" s="4">
         <v>3.3</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="29">
         <v>0.94</v>
       </c>
       <c r="P21">
@@ -1688,24 +1766,28 @@
         <v>589968063999999.88</v>
       </c>
       <c r="S21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Lindor = Lindor = new CelestialBody(8.83969E+24, 8000000, 25200, new Orbit(Sun, 359571000000, 0.03, 1.7, 80, 75, 3.3));</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="T21" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Lindor = Lindor = new CelestialBody(8.83969e24, 8000000, 25200, new Orbit(Sun, 359571000000, 0.03, 1.7, 80, 75, 3.3));</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <v>8.1</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <v>9.9182E+19</v>
       </c>
       <c r="D22" s="3">
         <v>150000</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="26">
         <f>IF(R22,Q22,"uhhh…")</f>
         <v>116041.15445521126</v>
       </c>
@@ -1732,31 +1814,35 @@
       </c>
       <c r="M22" s="2"/>
       <c r="Q22" s="3">
-        <f t="shared" ref="Q22:Q26" si="1">2*PI()*SQRT(G22^3/VLOOKUP(F22,B:P,15,0))</f>
+        <f t="shared" ref="Q22:Q26" si="2">2*PI()*SQRT(G22^3/VLOOKUP(F22,B:P,15,0))</f>
         <v>116041.15445521126</v>
       </c>
       <c r="R22" t="b">
         <v>1</v>
       </c>
       <c r="S22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Krel = Krel = new CelestialBody(99182000000000000000, 150000, 116041.154455211, new Orbit(Lindor, 58600000, 0.02, 1.5, 60, 180, 0));</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="T22" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Krel = Krel = new CelestialBody(99182000000000000000, 150000, 116041.154455211, new Orbit(Lindor, 58600000, 0.02, 1.5, 60, 180, 0));</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
         <v>8.1999999999999993</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <v>9.2569900000000003E+20</v>
       </c>
       <c r="D23" s="3">
         <v>300000</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="26">
         <f>IF(R23,Q23,"uhhh…")</f>
         <v>286875.24899704044</v>
       </c>
@@ -1782,31 +1868,35 @@
         <v>270</v>
       </c>
       <c r="Q23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>286875.24899704044</v>
       </c>
       <c r="R23" t="b">
         <v>1</v>
       </c>
       <c r="S23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Aden = Aden = new CelestialBody(9.25699E+20, 300000, 286875.24899704, new Orbit(Lindor, 107140000, 0.01, 0.25, 120, 30, 270));</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="T23" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Aden = Aden = new CelestialBody(9.25699e20, 300000, 286875.24899704, new Orbit(Lindor, 107140000, 0.01, 0.25, 120, 30, 270));</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
         <v>8.3000000000000007</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>9.8939600000000008E+21</v>
       </c>
       <c r="D24" s="3">
         <v>670000</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="26">
         <f>IF(R24,Q24,"uhhh…")</f>
         <v>664152.06128300645</v>
       </c>
@@ -1832,31 +1922,35 @@
         <v>90</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>664152.06128300645</v>
       </c>
       <c r="R24" t="b">
         <v>1</v>
       </c>
       <c r="S24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Huygen = Huygen = new CelestialBody(9.89396E+21, 670000, 664152.061283006, new Orbit(Lindor, 187500000, 0.025, 0.75, 150, 60, 90));</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="T24" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Huygen = Huygen = new CelestialBody(9.89396e21, 670000, 664152.061283006, new Orbit(Lindor, 187500000, 0.025, 0.75, 150, 60, 90));</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
         <v>8.4</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <v>1.4877300000000001E+22</v>
       </c>
       <c r="D25" s="3">
         <v>750000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="26">
         <f>IF(R25,Q25,"uhhh…")</f>
         <v>1407680.0945273687</v>
       </c>
@@ -1882,31 +1976,35 @@
         <v>180</v>
       </c>
       <c r="Q25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1407680.0945273687</v>
       </c>
       <c r="R25" t="b">
         <v>1</v>
       </c>
       <c r="S25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Riga = Riga = new CelestialBody(1.48773E+22, 750000, 1407680.09452737, new Orbit(Lindor, 309380000, 0.03, 0.5, 90, 105, 180));</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="T25" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Riga = Riga = new CelestialBody(1.48773e22, 750000, 1407680.09452737, new Orbit(Lindor, 309380000, 0.03, 0.5, 90, 105, 180));</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
         <v>8.5</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <v>4.0407499999999998E+21</v>
       </c>
       <c r="D26" s="3">
         <v>500000</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="26">
         <f>IF(R26,Q26,"uhhh…")</f>
         <v>3573035.4844202376</v>
       </c>
@@ -1932,31 +2030,35 @@
         <v>90</v>
       </c>
       <c r="Q26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3573035.4844202376</v>
       </c>
       <c r="R26" t="b">
         <v>1</v>
       </c>
       <c r="S26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Talos = Talos = new CelestialBody(4.04075E+21, 500000, 3573035.48442024, new Orbit(Lindor, 575680000, 0.04, 1, 180, 285, 90));</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="T26" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Talos = Talos = new CelestialBody(4.04075e21, 500000, 3573035.48442024, new Orbit(Lindor, 575680000, 0.04, 1, 180, 285, 90));</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
         <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <v>7.93456E+21</v>
       </c>
       <c r="D27" s="3">
         <v>600000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="26">
         <v>14400</v>
       </c>
       <c r="F27" t="s">
@@ -1980,7 +2082,7 @@
       <c r="L27" s="4">
         <v>3.54</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="29">
         <v>0.15</v>
       </c>
       <c r="P27">
@@ -1988,24 +2090,28 @@
         <v>529559100000</v>
       </c>
       <c r="S27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Eeloo = Eeloo = new CelestialBody(7.93456E+21, 600000, 14400, new Orbit(Sun, 471171300000, 0.26, 6.15, 50, 260, 3.54));</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="T27" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Eeloo = Eeloo = new CelestialBody(7.93456e21, 600000, 14400, new Orbit(Sun, 471171300000, 0.26, 6.15, 50, 260, 3.54));</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
         <v>9.1</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <v>2.35098E+20</v>
       </c>
       <c r="D28" s="3">
         <v>200000</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="26">
         <f>IF(R28,Q28,"uhhh…")</f>
         <v>1548329.294089711</v>
       </c>
@@ -2031,31 +2137,35 @@
         <v>0</v>
       </c>
       <c r="Q28" s="3">
-        <f t="shared" ref="Q28:Q29" si="2">2*PI()*SQRT(G28^3/VLOOKUP(F28,B:P,15,0))</f>
+        <f t="shared" ref="Q28:Q29" si="3">2*PI()*SQRT(G28^3/VLOOKUP(F28,B:P,15,0))</f>
         <v>1548329.294089711</v>
       </c>
       <c r="R28" t="b">
         <v>1</v>
       </c>
       <c r="S28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Celes = Celes = new CelestialBody(2.35098E+20, 200000, 1548329.29408971, new Orbit(Eeloo, 31800000, 0.05, 10, 100, 270, 0));</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="T28" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Celes = Celes = new CelestialBody(2.35098e20, 200000, 1548329.29408971, new Orbit(Eeloo, 31800000, 0.05, 10, 100, 270, 0));</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
         <v>9.1999999999999993</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <v>5.14277E+16</v>
       </c>
       <c r="D29" s="3">
         <v>10000</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="26">
         <f>IF(R29,Q29,"uhhh…")</f>
         <v>4490316.3836401859</v>
       </c>
@@ -2081,31 +2191,35 @@
         <v>180</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4490316.3836401859</v>
       </c>
       <c r="R29" t="b">
         <v>1</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Tam = Tam = new CelestialBody(51427700000000000, 10000, 4490316.38364019, new Orbit(Eeloo, 64670000, 0.025, 9.5, 105, 210, 180));</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="T29" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Tam = Tam = new CelestialBody(51427700000000000, 10000, 4490316.38364019, new Orbit(Eeloo, 64670000, 0.025, 9.5, 105, 210, 180));</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
         <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>2.9754599999999999E+21</v>
       </c>
       <c r="D30" s="3">
         <v>450000</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="26">
         <v>14400</v>
       </c>
       <c r="F30" t="s">
@@ -2130,24 +2244,28 @@
         <v>4.7</v>
       </c>
       <c r="S30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Hamek = Hamek = new CelestialBody(2.97546E+21, 450000, 14400, new Orbit(Sun, 527129000000, 0.1, 4, 165, 175, 4.7));</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="T30" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Hamek = Hamek = new CelestialBody(2.97546e21, 450000, 14400, new Orbit(Sun, 527129000000, 0.1, 4, 165, 175, 4.7));</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <v>1.9043E+24</v>
       </c>
       <c r="D31" s="3">
         <v>3600000</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="26">
         <v>43200</v>
       </c>
       <c r="F31" t="s">
@@ -2171,7 +2289,7 @@
       <c r="L31" s="4">
         <v>2.5</v>
       </c>
-      <c r="O31" s="30">
+      <c r="O31" s="29">
         <v>1</v>
       </c>
       <c r="P31">
@@ -2179,24 +2297,28 @@
         <v>127094184000000</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Nara = Nara = new CelestialBody(1.9043E+24, 3600000, 43200, new Orbit(Sun, 1712000000000, 0.35, 20, 90, 150, 2.5));</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="T31" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Nara = Nara = new CelestialBody(1.9043e24, 3600000, 43200, new Orbit(Sun, 1712000000000, 0.35, 20, 90, 150, 2.5));</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
         <v>11.1</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>9.0277699999999997E+20</v>
       </c>
       <c r="D32" s="3">
         <v>320000</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="26">
         <f>IF(R32,Q32,"uhhh…")</f>
         <v>232809.99738773936</v>
       </c>
@@ -2229,24 +2351,28 @@
         <v>1</v>
       </c>
       <c r="S32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Amos = Amos = new CelestialBody(9.02777E+20, 320000, 232809.997387739, new Orbit(Nara, 55880000, 0.01, 0.5, 180, 345, 180));</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="T32" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Amos = Amos = new CelestialBody(9.02777e20, 320000, 232809.997387739, new Orbit(Nara, 55880000, 0.01, 0.5, 180, 345, 180));</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
         <v>11.2</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <v>1.0799799999999999E+22</v>
       </c>
       <c r="D33" s="3">
         <v>700000</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="26">
         <f>IF(R33,Q33,"uhhh…")</f>
         <v>788078.42084745329</v>
       </c>
@@ -2279,18 +2405,22 @@
         <v>1</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Enon = Enon = new CelestialBody(1.07998E+22, 700000, 788078.420847453, new Orbit(Nara, 125980000, 0.015, 0.2, 270, 0, 180));</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="T33" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Enon = Enon = new CelestialBody(1.07998e22, 700000, 788078.420847453, new Orbit(Nara, 125980000, 0.015, 0.2, 270, 0, 180));</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
         <v>11.3</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <v>3.55586E+19</v>
       </c>
       <c r="D34" s="3">
@@ -2321,18 +2451,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Prax = Prax = new CelestialBody(35558600000000000000, 110000, 21600, new Orbit(Nara, 751900000, 0.4, 17, 95, 100, 0));</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="T34" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Prax = Prax = new CelestialBody(35558600000000000000, 110000, 21600, new Orbit(Nara, 751900000, 0.4, 17, 95, 100, 0));</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
         <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="32">
         <f>P35/(6.67408*10^-11)</f>
         <v>5.9684026833287239E+28</v>
       </c>
@@ -2340,7 +2474,7 @@
         <f>30170000*2.5</f>
         <v>75425000</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="26">
         <f>1296000*2</f>
         <v>2592000</v>
       </c>
@@ -2366,7 +2500,7 @@
       <c r="L35" s="4">
         <v>-0.42599999999999999</v>
       </c>
-      <c r="O35" s="30">
+      <c r="O35" s="29">
         <v>71.400000000000006</v>
       </c>
       <c r="P35">
@@ -2381,26 +2515,30 @@
         <v>0</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Grannus = Grannus = new CelestialBody(5.96840268332872E+28, 75425000, 2592000, new Orbit(Sun, 5000000000000, 0.1, 7, 195, 20, -0.426));</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="T35" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Grannus = Grannus = new CelestialBody(5.96840268332872e28, 75425000, 2592000, new Orbit(Sun, 5000000000000, 0.1, 7, 195, 20, -0.426));</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
         <v>12.1</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="33">
-        <f t="shared" ref="C36:C49" si="3">P36/(6.67408*10^-11)</f>
+      <c r="C36" s="32">
+        <f t="shared" ref="C36:C49" si="4">P36/(6.67408*10^-11)</f>
         <v>7.3468178385635188E+21</v>
       </c>
       <c r="D36" s="3">
         <f>200000*2.5</f>
         <v>500000</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="26">
         <f>IF(R36,Q36,"uhhh…")</f>
         <v>52170.517033444688</v>
       </c>
@@ -2426,41 +2564,45 @@
       <c r="L36" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O36" s="30">
+      <c r="O36" s="29">
         <v>0.2</v>
       </c>
       <c r="P36">
-        <f t="shared" ref="P36:P49" si="4">O36*9.80665*D36^2</f>
+        <f t="shared" ref="P36:P49" si="5">O36*9.80665*D36^2</f>
         <v>490332500000</v>
       </c>
       <c r="Q36" s="3">
-        <f t="shared" ref="Q36:Q49" si="5">2*PI()*SQRT(G36^3/VLOOKUP(F36,B:P,15,0))</f>
+        <f t="shared" ref="Q36:Q49" si="6">2*PI()*SQRT(G36^3/VLOOKUP(F36,B:P,15,0))</f>
         <v>52170.517033444688</v>
       </c>
       <c r="R36" t="b">
         <v>1</v>
       </c>
       <c r="S36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Taranis = Taranis = new CelestialBody(7.34681783856352E+21, 500000, 52170.5170334447, new Orbit(Grannus, 650000000, 0.02, 9, 140, 345, 3.141592654));</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="T36" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Taranis = Taranis = new CelestialBody(7.34681783856352e21, 500000, 52170.5170334447, new Orbit(Grannus, 650000000, 0.02, 9, 140, 345, 3.141592654));</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
         <v>12.2</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="33">
-        <f t="shared" si="3"/>
+      <c r="C37" s="32">
+        <f t="shared" si="4"/>
         <v>5.0624166668851739E+22</v>
       </c>
       <c r="D37" s="3">
         <f>350000*2.5</f>
         <v>875000</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="26">
         <f>IF(R37,Q37,"uhhh…")</f>
         <v>922118.7342237914</v>
       </c>
@@ -2486,41 +2628,45 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="O37" s="30">
+      <c r="O37" s="29">
         <v>0.45</v>
       </c>
       <c r="P37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3378697382812.4995</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>922118.7342237914</v>
       </c>
       <c r="R37" t="b">
         <v>1</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Toutatis = Toutatis = new CelestialBody(5.06241666688517E+22, 875000, 922118.734223791, new Orbit(Grannus, 4410500000, 0.015, 10.5, 160, 300, 0));</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="T37" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Toutatis = Toutatis = new CelestialBody(5.06241666688517e22, 875000, 922118.734223791, new Orbit(Grannus, 4410500000, 0.015, 10.5, 160, 300, 0));</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
         <v>12.3</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="33">
-        <f t="shared" si="3"/>
+      <c r="C38" s="32">
+        <f t="shared" si="4"/>
         <v>4.9499185187321704E+23</v>
       </c>
       <c r="D38" s="3">
         <f>700000*2.5</f>
         <v>1750000</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="26">
         <v>243000</v>
       </c>
       <c r="F38" t="s">
@@ -2544,41 +2690,45 @@
       <c r="L38" s="4">
         <v>0</v>
       </c>
-      <c r="O38" s="30">
+      <c r="O38" s="29">
         <v>1.1000000000000001</v>
       </c>
       <c r="P38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33036152187500</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1537200.0000000033</v>
       </c>
       <c r="R38" t="b">
         <v>0</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Nodens = Nodens = new CelestialBody(4.94991851873217E+23, 1750000, 243000, new Orbit(Grannus, 6200835067.84755, 0.02, 10, 155, 30, 0));</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="13" t="s">
+      <c r="T38" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Nodens = Nodens = new CelestialBody(4.94991851873217e23, 1750000, 243000, new Orbit(Grannus, 6200835067.84755, 0.02, 10, 155, 30, 0));</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="33">
-        <f t="shared" si="3"/>
+      <c r="C39" s="32">
+        <f t="shared" si="4"/>
         <v>1.5497193878219922E+22</v>
       </c>
       <c r="D39" s="3">
         <f>250000*2.5</f>
         <v>625000</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="26">
         <f>IF(R39,Q39,"uhhh…")</f>
         <v>307440.00000002445</v>
       </c>
@@ -2603,41 +2753,45 @@
       <c r="L39" s="4">
         <v>4.875</v>
       </c>
-      <c r="O39" s="30">
+      <c r="O39" s="29">
         <v>0.27</v>
       </c>
       <c r="P39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1034295117187.5</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>307440.00000002445</v>
       </c>
       <c r="R39" t="b">
         <v>1</v>
       </c>
       <c r="S39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Belisama = Belisama = new CelestialBody(1.54971938782199E+22, 625000, 307440.000000024, new Orbit(Nodens, 42925644.1946, 0.025, 9.5, 135, 165, 4.875));</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="T39" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Belisama = Belisama = new CelestialBody(1.54971938782199e22, 625000, 307440.000000024, new Orbit(Nodens, 42925644.1946, 0.025, 9.5, 135, 165, 4.875));</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
         <v>12.4</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="33">
-        <f t="shared" si="3"/>
+      <c r="C40" s="32">
+        <f t="shared" si="4"/>
         <v>2.8928095239343859E+21</v>
       </c>
       <c r="D40" s="3">
         <f>150000*2.5</f>
         <v>375000</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="26">
         <v>28800</v>
       </c>
       <c r="F40" t="s">
@@ -2662,41 +2816,45 @@
       <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="O40" s="30">
+      <c r="O40" s="29">
         <v>0.14000000000000001</v>
       </c>
       <c r="P40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>193068421875.00003</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5635232.1303776577</v>
       </c>
       <c r="R40" t="b">
         <v>0</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Sucellus = Sucellus = new CelestialBody(2.89280952393439E+21, 375000, 28800, new Orbit(Grannus, 14742500000, 0.09, 7, 170, 45, 4));</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="13" t="s">
+      <c r="T40" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Sucellus = Sucellus = new CelestialBody(2.89280952393439e21, 375000, 28800, new Orbit(Grannus, 14742500000, 0.09, 7, 170, 45, 4));</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="33">
-        <f t="shared" si="3"/>
+      <c r="C41" s="32">
+        <f t="shared" si="4"/>
         <v>1.6530340136767916E+19</v>
       </c>
       <c r="D41" s="3">
         <f>30000*2.5</f>
         <v>75000</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <f>IF(R41,Q41,"uhhh…")</f>
         <v>575945.043182772</v>
       </c>
@@ -2722,41 +2880,45 @@
       <c r="L41" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O41" s="29">
         <v>0.02</v>
       </c>
       <c r="P41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1103248125</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>575945.043182772</v>
       </c>
       <c r="R41" t="b">
         <v>1</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Caireen = Caireen = new CelestialBody(16530340136767900000, 75000, 575945.043182772, new Orbit(Sucellus, 11750000, 0.025, 5.5, 195, 75, 3.141592654));</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="T41" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Caireen = Caireen = new CelestialBody(16530340136767900000, 75000, 575945.043182772, new Orbit(Sucellus, 11750000, 0.025, 5.5, 195, 75, 3.141592654));</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
         <v>12.5</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="33">
-        <f t="shared" si="3"/>
+      <c r="C42" s="32">
+        <f t="shared" si="4"/>
         <v>8.2651700683839576E+24</v>
       </c>
       <c r="D42" s="3">
         <f>3000000*2.5</f>
         <v>7500000</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="26">
         <v>57600</v>
       </c>
       <c r="F42" t="s">
@@ -2781,42 +2943,46 @@
       <c r="L42" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O42" s="30">
+      <c r="O42" s="29">
         <v>1</v>
       </c>
       <c r="P42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>551624062499999.94</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16154203.923891921</v>
       </c>
       <c r="R42" t="b">
         <v>0</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Sirona = Sirona = new CelestialBody(8.26517006838396E+24, 7500000, 57600, new Orbit(Grannus, 29750000000, 0.04, 10, 150, 0, 3.141592654));</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="13" t="s">
+      <c r="T42" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Sirona = Sirona = new CelestialBody(8.26517006838396e24, 7500000, 57600, new Orbit(Grannus, 29750000000, 0.04, 10, 150, 0, 3.141592654));</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="33">
-        <f t="shared" si="3"/>
+      <c r="C43" s="32">
+        <f t="shared" si="4"/>
         <v>3.5264725625104887E+21</v>
       </c>
       <c r="D43" s="3">
         <f>160000*2.5</f>
         <v>400000</v>
       </c>
-      <c r="E43" s="27">
-        <f t="shared" ref="E43:E45" si="6">IF(R43,Q43,"uhhh…")</f>
+      <c r="E43" s="26">
+        <f t="shared" ref="E43:E45" si="7">IF(R43,Q43,"uhhh…")</f>
         <v>218962.80438980678</v>
       </c>
       <c r="F43" t="s">
@@ -2841,42 +3007,46 @@
       <c r="L43" s="4">
         <v>0</v>
       </c>
-      <c r="O43" s="30">
+      <c r="O43" s="29">
         <v>0.15</v>
       </c>
       <c r="P43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>235359600000</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>218962.80438980678</v>
       </c>
       <c r="R43" t="b">
         <v>1</v>
       </c>
       <c r="S43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Airmed = Airmed = new CelestialBody(3.52647256251049E+21, 400000, 218962.804389807, new Orbit(Sirona, 87500000, 0.01, 1, 120, 90, 0));</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="T43" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Airmed = Airmed = new CelestialBody(3.52647256251049e21, 400000, 218962.804389807, new Orbit(Sirona, 87500000, 0.01, 1, 120, 90, 0));</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C44" s="33">
-        <f t="shared" si="3"/>
+      <c r="C44" s="32">
+        <f t="shared" si="4"/>
         <v>2.8928095239343849E+22</v>
       </c>
       <c r="D44" s="3">
         <f>300000*2.5</f>
         <v>750000</v>
       </c>
-      <c r="E44" s="27">
-        <f t="shared" si="6"/>
+      <c r="E44" s="26">
+        <f t="shared" si="7"/>
         <v>619320.33524662373</v>
       </c>
       <c r="F44" t="s">
@@ -2901,42 +3071,46 @@
       <c r="L44" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O44" s="30">
+      <c r="O44" s="29">
         <v>0.35</v>
       </c>
       <c r="P44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1930684218749.9998</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>619320.33524662373</v>
       </c>
       <c r="R44" t="b">
         <v>1</v>
       </c>
       <c r="S44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Brovo = Brovo = new CelestialBody(2.89280952393438E+22, 750000, 619320.335246624, new Orbit(Sirona, 175000000, 0.02, 0.5, 150, 30, 3.141592654));</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="T44" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Brovo = Brovo = new CelestialBody(2.89280952393438e22, 750000, 619320.335246624, new Orbit(Sirona, 175000000, 0.02, 0.5, 150, 30, 3.141592654));</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="33">
-        <f t="shared" si="3"/>
+      <c r="C45" s="32">
+        <f t="shared" si="4"/>
         <v>3.5264725625104885E+20</v>
       </c>
       <c r="D45" s="3">
         <f>80000*2.5</f>
         <v>200000</v>
       </c>
-      <c r="E45" s="27">
-        <f t="shared" si="6"/>
+      <c r="E45" s="26">
+        <f t="shared" si="7"/>
         <v>1390081.134217019</v>
       </c>
       <c r="F45" t="s">
@@ -2961,41 +3135,45 @@
       <c r="L45" s="4">
         <v>0</v>
       </c>
-      <c r="O45" s="30">
+      <c r="O45" s="29">
         <v>0.06</v>
       </c>
       <c r="P45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23535959999.999996</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1390081.134217019</v>
       </c>
       <c r="R45" t="b">
         <v>1</v>
       </c>
       <c r="S45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Damona = Damona = new CelestialBody(3.52647256251049E+20, 200000, 1390081.13421702, new Orbit(Sirona, 300000000, 0.05, 4, 210, 300, 0));</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="T45" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Damona = Damona = new CelestialBody(3.52647256251049e20, 200000, 1390081.13421702, new Orbit(Sirona, 300000000, 0.05, 4, 210, 300, 0));</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
         <v>12.6</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="33">
-        <f t="shared" si="3"/>
+      <c r="C46" s="32">
+        <f t="shared" si="4"/>
         <v>1.3775283447306597E+23</v>
       </c>
       <c r="D46" s="3">
         <f>500000*2.5</f>
         <v>1250000</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="26">
         <v>36000</v>
       </c>
       <c r="F46" t="s">
@@ -3020,41 +3198,45 @@
       <c r="L46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="30">
+      <c r="O46" s="29">
         <v>0.6</v>
       </c>
       <c r="P46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9193734375000</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44829811.448185764</v>
       </c>
       <c r="R46" t="b">
         <v>0</v>
       </c>
       <c r="S46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Epona = Epona = new CelestialBody(1.37752834473066E+23, 1250000, 36000, new Orbit(Grannus, 58750000000, 0.06, 11, 145, 90, 0));</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="T46" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Epona = Epona = new CelestialBody(1.37752834473066e23, 1250000, 36000, new Orbit(Grannus, 58750000000, 0.06, 11, 145, 90, 0));</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="33">
-        <f t="shared" si="3"/>
+      <c r="C47" s="32">
+        <f t="shared" si="4"/>
         <v>6.8876417236532969E+19</v>
       </c>
       <c r="D47" s="3">
         <f>50000*2.5</f>
         <v>125000</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="26">
         <f>IF(R47,Q47,"uhhh…")</f>
         <v>574139.31583489303</v>
       </c>
@@ -3080,41 +3262,45 @@
       <c r="L47" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O47" s="30">
+      <c r="O47" s="29">
         <v>0.03</v>
       </c>
       <c r="P47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4596867187.499999</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>574139.31583489303</v>
       </c>
       <c r="R47" t="b">
         <v>1</v>
       </c>
       <c r="S47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Rosmerta = Rosmerta = new CelestialBody(68876417236533000000, 125000, 574139.315834893, new Orbit(Epona, 42500000, 0.07, 6, 180, 60, 3.141592654));</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="33">
-        <f t="shared" si="3"/>
+      <c r="T47" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Rosmerta = Rosmerta = new CelestialBody(68876417236533000000, 125000, 574139.315834893, new Orbit(Epona, 42500000, 0.07, 6, 180, 60, 3.141592654));</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="32">
+        <f t="shared" si="4"/>
         <v>8.2651700683839565E+17</v>
       </c>
       <c r="D48" s="3">
         <f>10000*2.5</f>
         <v>25000</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="26">
         <v>14400</v>
       </c>
       <c r="F48" t="s">
@@ -3139,41 +3325,45 @@
       <c r="L48" s="4">
         <v>0</v>
       </c>
-      <c r="O48" s="30">
+      <c r="O48" s="29">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="P48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55162406.249999993</v>
       </c>
       <c r="Q48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6993710.7982858419</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
       </c>
-      <c r="S48" t="str">
-        <f t="shared" si="0"/>
-        <v>CelestialBody.RAB-58E = RAB-58E = new CelestialBody(826517006838396000, 25000, 14400, new Orbit(Epona, 225000000, 0.4, -160, 225, 180, 0));</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="S48" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>CelestialBody.RAB58E = RAB58E = new CelestialBody(826517006838396000, 25000, 14400, new Orbit(Epona, 225000000, 0.4, -160, 225, 180, 0));</v>
+      </c>
+      <c r="T48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.RAB58E = RAB58E = new CelestialBody(826517006838396000, 25000, 14400, new Orbit(Epona, 225000000, 0.4, -160, 225, 180, 0));</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
         <v>12.7</v>
       </c>
-      <c r="B49" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="33">
-        <f t="shared" si="3"/>
+      <c r="B49" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="32">
+        <f t="shared" si="4"/>
         <v>9.2569904765900345E+20</v>
       </c>
       <c r="D49" s="3">
         <f>120000*2.5</f>
         <v>300000</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="26">
         <v>21600</v>
       </c>
       <c r="F49" t="s">
@@ -3198,27 +3388,31 @@
       <c r="L49" s="4">
         <v>0.5</v>
       </c>
-      <c r="O49" s="30">
+      <c r="O49" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61781895000.000008</v>
       </c>
       <c r="Q49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89645473.724087894</v>
       </c>
       <c r="R49" t="b">
         <v>0</v>
       </c>
       <c r="S49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CelestialBody.Cernunnos = Cernunnos = new CelestialBody(9.25699047659003E+20, 300000, 21600, new Orbit(Grannus, 93250000000, 0.175, 4, 120, 180, 0.5));</v>
       </c>
+      <c r="T49" t="str">
+        <f t="shared" si="0"/>
+        <v>CelestialBody.Cernunnos = Cernunnos = new CelestialBody(9.25699047659003e20, 300000, 21600, new Orbit(Grannus, 93250000000, 0.175, 4, 120, 180, 0.5));</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:S49" xr:uid="{119EC131-6F2D-421D-A895-55476C8A7545}"/>
+  <autoFilter ref="A2:T49" xr:uid="{8F6305F7-A823-4ED9-A959-9694B0FDA874}"/>
   <mergeCells count="8">
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
@@ -3238,8 +3432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86003B00-B093-4A68-B134-DD48EE6E27DB}">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3442,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="str">
@@ -3545,7 +3739,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B34" t="str">
@@ -3554,7 +3748,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B35" t="str">
@@ -3563,7 +3757,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B36" t="str">
@@ -3572,7 +3766,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="12" t="s">
         <v>46</v>
       </c>
       <c r="B37" t="str">
@@ -3581,7 +3775,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B38" t="str">
@@ -3590,7 +3784,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>48</v>
       </c>
       <c r="B39" t="str">
@@ -3599,7 +3793,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="str">
@@ -3608,7 +3802,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B41" t="str">
@@ -3617,7 +3811,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B42" t="str">
@@ -3626,7 +3820,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="12" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="str">
@@ -3635,7 +3829,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B44" t="str">
@@ -3644,7 +3838,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B45" t="str">
@@ -3653,21 +3847,21 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon, Prax, Grannus, Taranis, Toutatis, Nodens, Belisama, Sucellus, Caireen, Sirona, Airmed, Brovo, Damona, Epona, Rosmerta, RAB58E</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon, Prax, Grannus, Taranis, Toutatis, Nodens, Belisama, Sucellus, Caireen, Sirona, Airmed, Brovo, Damona, Epona, Rosmerta, RAB-58E</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>56</v>
-      </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
-        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon, Prax, Grannus, Taranis, Toutatis, Nodens, Belisama, Sucellus, Caireen, Sirona, Airmed, Brovo, Damona, Epona, Rosmerta, RAB-58E, Cernunnos</v>
+        <v>Sun, Moho, Eve, Gilly, Kerbin, Mun, Minmus, Duna, Ike, Edna, Dak, Dres, Jool, Laythe, Vall, Tylo, Bop, Pol, Lindor, Krel, Aden, Huygen, Riga, Talos, Eeloo, Celes, Tam, Hamek, Nara, Amos, Enon, Prax, Grannus, Taranis, Toutatis, Nodens, Belisama, Sucellus, Caireen, Sirona, Airmed, Brovo, Damona, Epona, Rosmerta, RAB58E, Cernunnos</v>
       </c>
     </row>
   </sheetData>

--- a/JNSQ-Bodies.xlsx
+++ b/JNSQ-Bodies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\GitHub\ksp-lwp-jnsq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E8A90-D1F4-4A09-8920-E44AB97C426E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D4D755-77B8-47EC-BBB9-CB17289BEB41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="450" windowWidth="26700" windowHeight="19425" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
+    <workbookView xWindow="11100" yWindow="990" windowWidth="26700" windowHeight="19425" xr2:uid="{64E25FC0-D3DE-4BFA-B57D-77999DF87C85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Inclination</t>
   </si>
   <si>
-    <t>CoffeeScript constructor</t>
-  </si>
-  <si>
     <t>Grannus</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>RAB58E</t>
+  </si>
+  <si>
+    <t>CoffeeScript Constructor</t>
   </si>
 </sst>
 </file>
@@ -331,24 +331,6 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -385,8 +367,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,10 +705,10 @@
   <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +726,7 @@
     <col min="12" max="12" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.140625" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="15" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" style="23" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
@@ -735,85 +735,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="28"/>
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="27"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="1:20" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19" t="s">
+      <c r="K2" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="R2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="S2" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="7"/>
-      <c r="O3" s="29">
+      <c r="O3" s="23">
         <v>27.7</v>
       </c>
       <c r="P3">
@@ -938,7 +938,7 @@
       <c r="L5" s="4">
         <v>5.7</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="23">
         <v>1.4</v>
       </c>
       <c r="P5">
@@ -967,7 +967,7 @@
       <c r="D6" s="3">
         <v>30000</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="20">
         <f>IF(R6,Q6,"uhhh…")</f>
         <v>670318.53484023141</v>
       </c>
@@ -1021,7 +1021,7 @@
       <c r="D7" s="3">
         <v>1600000</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="20">
         <v>43200</v>
       </c>
       <c r="F7" t="s">
@@ -1067,7 +1067,7 @@
       <c r="D8" s="3">
         <v>800000</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="20">
         <v>50400</v>
       </c>
       <c r="F8" t="s">
@@ -1113,7 +1113,7 @@
       <c r="D9" s="3">
         <v>160000</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="20">
         <v>32400</v>
       </c>
       <c r="F9" t="s">
@@ -1159,7 +1159,7 @@
       <c r="D10" s="3">
         <v>800000</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="20">
         <v>50400</v>
       </c>
       <c r="F10" t="s">
@@ -1183,7 +1183,7 @@
       <c r="L10" s="4">
         <v>0.9</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="23">
         <v>0.34</v>
       </c>
       <c r="P10">
@@ -1212,7 +1212,7 @@
       <c r="D11" s="3">
         <v>210000</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="20">
         <f>IF(R11,Q11,"uhhh…")</f>
         <v>955507.44559247617</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="D12" s="3">
         <v>260000</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="20">
         <v>10800</v>
       </c>
       <c r="F12" t="s">
@@ -1290,7 +1290,7 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="23">
         <v>0.08</v>
       </c>
       <c r="P12">
@@ -1319,7 +1319,7 @@
       <c r="D13" s="3">
         <v>20000</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="20">
         <f>IF(R13,Q13,"uhhh…")</f>
         <v>284235.78721862118</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="D14" s="3">
         <v>360000</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>16200</v>
       </c>
       <c r="F14" t="s">
@@ -1419,7 +1419,7 @@
       <c r="D15" s="3">
         <v>14000000</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="20">
         <v>19800</v>
       </c>
       <c r="F15" t="s">
@@ -1443,7 +1443,7 @@
       <c r="L15" s="4">
         <v>0.6</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="23">
         <v>1.04</v>
       </c>
       <c r="P15">
@@ -1472,7 +1472,7 @@
       <c r="D16" s="3">
         <v>1100000</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <f>IF(R16,Q16,"uhhh…")</f>
         <v>115299.75343623257</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="D17" s="3">
         <v>550000</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="20">
         <f>IF(R17,Q17,"uhhh…")</f>
         <v>285030.00096071046</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="D18" s="3">
         <v>900000</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="20">
         <f>IF(R18,Q18,"uhhh…")</f>
         <v>704636.4074863788</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="D19" s="3">
         <v>190000</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="20">
         <f>IF(R19,Q19,"uhhh…")</f>
         <v>1978081.2878190691</v>
       </c>
@@ -1688,7 +1688,7 @@
       <c r="D20" s="3">
         <v>130000</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="20">
         <v>18000</v>
       </c>
       <c r="F20" t="s">
@@ -1734,7 +1734,7 @@
       <c r="D21" s="3">
         <v>8000000</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="20">
         <v>25200</v>
       </c>
       <c r="F21" t="s">
@@ -1758,7 +1758,7 @@
       <c r="L21" s="4">
         <v>3.3</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="23">
         <v>0.94</v>
       </c>
       <c r="P21">
@@ -1787,7 +1787,7 @@
       <c r="D22" s="3">
         <v>150000</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="20">
         <f>IF(R22,Q22,"uhhh…")</f>
         <v>116041.15445521126</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="D23" s="3">
         <v>300000</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="20">
         <f>IF(R23,Q23,"uhhh…")</f>
         <v>286875.24899704044</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="D24" s="3">
         <v>670000</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="20">
         <f>IF(R24,Q24,"uhhh…")</f>
         <v>664152.06128300645</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="D25" s="3">
         <v>750000</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="20">
         <f>IF(R25,Q25,"uhhh…")</f>
         <v>1407680.0945273687</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="D26" s="3">
         <v>500000</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="20">
         <f>IF(R26,Q26,"uhhh…")</f>
         <v>3573035.4844202376</v>
       </c>
@@ -2058,7 +2058,7 @@
       <c r="D27" s="3">
         <v>600000</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="20">
         <v>14400</v>
       </c>
       <c r="F27" t="s">
@@ -2082,7 +2082,7 @@
       <c r="L27" s="4">
         <v>3.54</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="23">
         <v>0.15</v>
       </c>
       <c r="P27">
@@ -2111,7 +2111,7 @@
       <c r="D28" s="3">
         <v>200000</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="20">
         <f>IF(R28,Q28,"uhhh…")</f>
         <v>1548329.294089711</v>
       </c>
@@ -2165,7 +2165,7 @@
       <c r="D29" s="3">
         <v>10000</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="20">
         <f>IF(R29,Q29,"uhhh…")</f>
         <v>4490316.3836401859</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="D30" s="3">
         <v>450000</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="20">
         <v>14400</v>
       </c>
       <c r="F30" t="s">
@@ -2265,7 +2265,7 @@
       <c r="D31" s="3">
         <v>3600000</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="20">
         <v>43200</v>
       </c>
       <c r="F31" t="s">
@@ -2289,7 +2289,7 @@
       <c r="L31" s="4">
         <v>2.5</v>
       </c>
-      <c r="O31" s="29">
+      <c r="O31" s="23">
         <v>1</v>
       </c>
       <c r="P31">
@@ -2318,7 +2318,7 @@
       <c r="D32" s="3">
         <v>320000</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="20">
         <f>IF(R32,Q32,"uhhh…")</f>
         <v>232809.99738773936</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="D33" s="3">
         <v>700000</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="20">
         <f>IF(R33,Q33,"uhhh…")</f>
         <v>788078.42084745329</v>
       </c>
@@ -2464,9 +2464,9 @@
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="32">
+        <v>41</v>
+      </c>
+      <c r="C35" s="26">
         <f>P35/(6.67408*10^-11)</f>
         <v>5.9684026833287239E+28</v>
       </c>
@@ -2474,7 +2474,7 @@
         <f>30170000*2.5</f>
         <v>75425000</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="20">
         <f>1296000*2</f>
         <v>2592000</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="L35" s="4">
         <v>-0.42599999999999999</v>
       </c>
-      <c r="O35" s="29">
+      <c r="O35" s="23">
         <v>71.400000000000006</v>
       </c>
       <c r="P35">
@@ -2528,9 +2528,9 @@
         <v>12.1</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="32">
+        <v>42</v>
+      </c>
+      <c r="C36" s="26">
         <f t="shared" ref="C36:C49" si="4">P36/(6.67408*10^-11)</f>
         <v>7.3468178385635188E+21</v>
       </c>
@@ -2538,12 +2538,12 @@
         <f>200000*2.5</f>
         <v>500000</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="20">
         <f>IF(R36,Q36,"uhhh…")</f>
         <v>52170.517033444688</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G36" s="3">
         <f>260000000*2.5</f>
@@ -2564,7 +2564,7 @@
       <c r="L36" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O36" s="29">
+      <c r="O36" s="23">
         <v>0.2</v>
       </c>
       <c r="P36">
@@ -2592,9 +2592,9 @@
         <v>12.2</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="32">
+        <v>43</v>
+      </c>
+      <c r="C37" s="26">
         <f t="shared" si="4"/>
         <v>5.0624166668851739E+22</v>
       </c>
@@ -2602,12 +2602,12 @@
         <f>350000*2.5</f>
         <v>875000</v>
       </c>
-      <c r="E37" s="26">
+      <c r="E37" s="20">
         <f>IF(R37,Q37,"uhhh…")</f>
         <v>922118.7342237914</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G37" s="3">
         <f>1764200000*2.5</f>
@@ -2628,7 +2628,7 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="O37" s="29">
+      <c r="O37" s="23">
         <v>0.45</v>
       </c>
       <c r="P37">
@@ -2656,9 +2656,9 @@
         <v>12.3</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="32">
+        <v>44</v>
+      </c>
+      <c r="C38" s="26">
         <f t="shared" si="4"/>
         <v>4.9499185187321704E+23</v>
       </c>
@@ -2666,11 +2666,11 @@
         <f>700000*2.5</f>
         <v>1750000</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="20">
         <v>243000</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38" s="3">
         <v>6200835067.8475504</v>
@@ -2690,7 +2690,7 @@
       <c r="L38" s="4">
         <v>0</v>
       </c>
-      <c r="O38" s="29">
+      <c r="O38" s="23">
         <v>1.1000000000000001</v>
       </c>
       <c r="P38">
@@ -2715,12 +2715,12 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="32">
+        <v>45</v>
+      </c>
+      <c r="C39" s="26">
         <f t="shared" si="4"/>
         <v>1.5497193878219922E+22</v>
       </c>
@@ -2728,12 +2728,12 @@
         <f>250000*2.5</f>
         <v>625000</v>
       </c>
-      <c r="E39" s="26">
+      <c r="E39" s="20">
         <f>IF(R39,Q39,"uhhh…")</f>
         <v>307440.00000002445</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G39" s="3">
         <v>42925644.194600001</v>
@@ -2753,7 +2753,7 @@
       <c r="L39" s="4">
         <v>4.875</v>
       </c>
-      <c r="O39" s="29">
+      <c r="O39" s="23">
         <v>0.27</v>
       </c>
       <c r="P39">
@@ -2781,9 +2781,9 @@
         <v>12.4</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="32">
+        <v>46</v>
+      </c>
+      <c r="C40" s="26">
         <f t="shared" si="4"/>
         <v>2.8928095239343859E+21</v>
       </c>
@@ -2791,11 +2791,11 @@
         <f>150000*2.5</f>
         <v>375000</v>
       </c>
-      <c r="E40" s="26">
+      <c r="E40" s="20">
         <v>28800</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="3">
         <f>5897000000*2.5</f>
@@ -2816,7 +2816,7 @@
       <c r="L40" s="4">
         <v>4</v>
       </c>
-      <c r="O40" s="29">
+      <c r="O40" s="23">
         <v>0.14000000000000001</v>
       </c>
       <c r="P40">
@@ -2841,12 +2841,12 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="32">
+        <v>47</v>
+      </c>
+      <c r="C41" s="26">
         <f t="shared" si="4"/>
         <v>1.6530340136767916E+19</v>
       </c>
@@ -2854,12 +2854,12 @@
         <f>30000*2.5</f>
         <v>75000</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E41" s="20">
         <f>IF(R41,Q41,"uhhh…")</f>
         <v>575945.043182772</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G41" s="3">
         <f>4700000*2.5</f>
@@ -2880,7 +2880,7 @@
       <c r="L41" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="23">
         <v>0.02</v>
       </c>
       <c r="P41">
@@ -2908,9 +2908,9 @@
         <v>12.5</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="32">
+        <v>48</v>
+      </c>
+      <c r="C42" s="26">
         <f t="shared" si="4"/>
         <v>8.2651700683839576E+24</v>
       </c>
@@ -2918,11 +2918,11 @@
         <f>3000000*2.5</f>
         <v>7500000</v>
       </c>
-      <c r="E42" s="26">
+      <c r="E42" s="20">
         <v>57600</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G42" s="3">
         <f>11900000000*2.5</f>
@@ -2943,7 +2943,7 @@
       <c r="L42" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O42" s="29">
+      <c r="O42" s="23">
         <v>1</v>
       </c>
       <c r="P42">
@@ -2968,12 +2968,12 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="32">
+        <v>49</v>
+      </c>
+      <c r="C43" s="26">
         <f t="shared" si="4"/>
         <v>3.5264725625104887E+21</v>
       </c>
@@ -2981,12 +2981,12 @@
         <f>160000*2.5</f>
         <v>400000</v>
       </c>
-      <c r="E43" s="26">
+      <c r="E43" s="20">
         <f t="shared" ref="E43:E45" si="7">IF(R43,Q43,"uhhh…")</f>
         <v>218962.80438980678</v>
       </c>
       <c r="F43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G43" s="3">
         <f>35000000*2.5</f>
@@ -3007,7 +3007,7 @@
       <c r="L43" s="4">
         <v>0</v>
       </c>
-      <c r="O43" s="29">
+      <c r="O43" s="23">
         <v>0.15</v>
       </c>
       <c r="P43">
@@ -3032,12 +3032,12 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="32">
+        <v>50</v>
+      </c>
+      <c r="C44" s="26">
         <f t="shared" si="4"/>
         <v>2.8928095239343849E+22</v>
       </c>
@@ -3045,12 +3045,12 @@
         <f>300000*2.5</f>
         <v>750000</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E44" s="20">
         <f t="shared" si="7"/>
         <v>619320.33524662373</v>
       </c>
       <c r="F44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G44" s="3">
         <f>70000000*2.5</f>
@@ -3071,7 +3071,7 @@
       <c r="L44" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O44" s="29">
+      <c r="O44" s="23">
         <v>0.35</v>
       </c>
       <c r="P44">
@@ -3096,12 +3096,12 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="32">
+        <v>51</v>
+      </c>
+      <c r="C45" s="26">
         <f t="shared" si="4"/>
         <v>3.5264725625104885E+20</v>
       </c>
@@ -3109,12 +3109,12 @@
         <f>80000*2.5</f>
         <v>200000</v>
       </c>
-      <c r="E45" s="26">
+      <c r="E45" s="20">
         <f t="shared" si="7"/>
         <v>1390081.134217019</v>
       </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G45" s="3">
         <f>120000000*2.5</f>
@@ -3135,7 +3135,7 @@
       <c r="L45" s="4">
         <v>0</v>
       </c>
-      <c r="O45" s="29">
+      <c r="O45" s="23">
         <v>0.06</v>
       </c>
       <c r="P45">
@@ -3163,9 +3163,9 @@
         <v>12.6</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="32">
+        <v>52</v>
+      </c>
+      <c r="C46" s="26">
         <f t="shared" si="4"/>
         <v>1.3775283447306597E+23</v>
       </c>
@@ -3173,11 +3173,11 @@
         <f>500000*2.5</f>
         <v>1250000</v>
       </c>
-      <c r="E46" s="26">
+      <c r="E46" s="20">
         <v>36000</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G46" s="3">
         <f>23500000000*2.5</f>
@@ -3198,7 +3198,7 @@
       <c r="L46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="29">
+      <c r="O46" s="23">
         <v>0.6</v>
       </c>
       <c r="P46">
@@ -3223,12 +3223,12 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="32">
+        <v>53</v>
+      </c>
+      <c r="C47" s="26">
         <f t="shared" si="4"/>
         <v>6.8876417236532969E+19</v>
       </c>
@@ -3236,12 +3236,12 @@
         <f>50000*2.5</f>
         <v>125000</v>
       </c>
-      <c r="E47" s="26">
+      <c r="E47" s="20">
         <f>IF(R47,Q47,"uhhh…")</f>
         <v>574139.31583489303</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G47" s="3">
         <f>17000000*2.5</f>
@@ -3262,7 +3262,7 @@
       <c r="L47" s="4">
         <v>3.1415926540000001</v>
       </c>
-      <c r="O47" s="29">
+      <c r="O47" s="23">
         <v>0.03</v>
       </c>
       <c r="P47">
@@ -3287,12 +3287,12 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="32">
+        <v>72</v>
+      </c>
+      <c r="C48" s="26">
         <f t="shared" si="4"/>
         <v>8.2651700683839565E+17</v>
       </c>
@@ -3300,11 +3300,11 @@
         <f>10000*2.5</f>
         <v>25000</v>
       </c>
-      <c r="E48" s="26">
+      <c r="E48" s="20">
         <v>14400</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G48" s="3">
         <f>90000000*2.5</f>
@@ -3325,7 +3325,7 @@
       <c r="L48" s="4">
         <v>0</v>
       </c>
-      <c r="O48" s="29">
+      <c r="O48" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="P48">
@@ -3353,9 +3353,9 @@
         <v>12.7</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="32">
+        <v>54</v>
+      </c>
+      <c r="C49" s="26">
         <f t="shared" si="4"/>
         <v>9.2569904765900345E+20</v>
       </c>
@@ -3363,11 +3363,11 @@
         <f>120000*2.5</f>
         <v>300000</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="20">
         <v>21600</v>
       </c>
       <c r="F49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G49" s="3">
         <f>37300000000*2.5</f>
@@ -3388,7 +3388,7 @@
       <c r="L49" s="4">
         <v>0.5</v>
       </c>
-      <c r="O49" s="29">
+      <c r="O49" s="23">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="P49">
@@ -3731,7 +3731,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" si="0"/>
@@ -3749,7 +3749,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
@@ -3758,7 +3758,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
@@ -3794,7 +3794,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
@@ -3821,7 +3821,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="0"/>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="0"/>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="0"/>
